--- a/branches/Specimen-resource-dev--FIG-48/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/Specimen-resource-dev--FIG-48/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T07:22:19+00:00</t>
+    <t>2023-02-14T08:50:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Specimen-resource-dev--FIG-48/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/Specimen-resource-dev--FIG-48/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T08:50:17+00:00</t>
+    <t>2023-02-14T08:50:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Specimen-resource-dev--FIG-48/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/Specimen-resource-dev--FIG-48/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T08:50:38+00:00</t>
+    <t>2023-02-14T14:33:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Specimen-resource-dev--FIG-48/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/Specimen-resource-dev--FIG-48/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T14:33:23+00:00</t>
+    <t>2023-02-14T14:33:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Specimen-resource-dev--FIG-48/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/Specimen-resource-dev--FIG-48/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T14:33:42+00:00</t>
+    <t>2023-02-15T09:10:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Specimen-resource-dev--FIG-48/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/Specimen-resource-dev--FIG-48/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T09:10:23+00:00</t>
+    <t>2023-02-15T09:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Specimen-resource-dev--FIG-48/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/Specimen-resource-dev--FIG-48/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T09:11:23+00:00</t>
+    <t>2023-02-15T10:38:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Specimen-resource-dev--FIG-48/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/Specimen-resource-dev--FIG-48/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T10:38:48+00:00</t>
+    <t>2023-02-15T10:39:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
